--- a/Birdoptera_pace_calculator.xlsx
+++ b/Birdoptera_pace_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwendolynbird/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6D1CEF-D1E0-E649-B70B-A476BEA97C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55218E1-6A5E-B84F-82E0-A8F8380C265F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{13CF2108-B303-CF4F-8758-48F4D14F7459}"/>
   </bookViews>
@@ -39,120 +39,60 @@
     <t>Aid Station</t>
   </si>
   <si>
-    <t>Miles</t>
-  </si>
-  <si>
-    <t>Total Miles</t>
-  </si>
-  <si>
-    <t>START - Pine Glen Camp</t>
-  </si>
-  <si>
     <t>7:00am</t>
   </si>
   <si>
     <t>6:00am</t>
   </si>
   <si>
-    <t>Aid #1 High Rock, FS 531</t>
-  </si>
-  <si>
-    <t>Aid #2 Shoal Creek, Hwy 78</t>
-  </si>
-  <si>
     <t>7:59am</t>
   </si>
   <si>
-    <t>Aid #3 Horseblock, I-20 overpass</t>
-  </si>
-  <si>
     <t>8:43am</t>
   </si>
   <si>
-    <t>Aid #4 Hwy 431</t>
-  </si>
-  <si>
     <t>9:23am</t>
   </si>
   <si>
-    <t>Aid #5 Morgan Lake, Cty 24</t>
-  </si>
-  <si>
     <t>11:09am</t>
   </si>
   <si>
     <t>10:07am</t>
   </si>
   <si>
-    <t>Aid #6 Blue Mtn, CC Road</t>
-  </si>
-  <si>
     <t>12:06pm</t>
   </si>
   <si>
-    <t>Aid #8 Silent Trail</t>
-  </si>
-  <si>
     <t>12:45pm</t>
   </si>
   <si>
-    <t>Aid #9 Hubbard Creek</t>
-  </si>
-  <si>
     <t>1:46pm</t>
   </si>
   <si>
-    <t>Aid #10 Adams Gap</t>
-  </si>
-  <si>
     <t>2:15pm</t>
   </si>
   <si>
-    <t>Aid #11 Clairmont Gap</t>
-  </si>
-  <si>
     <t>2:59pm</t>
   </si>
   <si>
-    <t>Aid #12 Chandler Springs</t>
-  </si>
-  <si>
     <t>3:45pm</t>
   </si>
   <si>
-    <t>Aid #13 Porters Gap</t>
-  </si>
-  <si>
     <t>4:15pm</t>
   </si>
   <si>
-    <t>Aid #14 Pinnacle</t>
-  </si>
-  <si>
     <t>5:06pm</t>
   </si>
   <si>
-    <t>Aid #15 Wormy’s Pulpit</t>
-  </si>
-  <si>
     <t>5:51pm</t>
   </si>
   <si>
-    <t>Aid #16 Bulls Gap</t>
-  </si>
-  <si>
     <t>6:46pm</t>
   </si>
   <si>
-    <t>Aid #17 Watershed 609-A</t>
-  </si>
-  <si>
     <t>7:53pm</t>
   </si>
   <si>
-    <t>Finish Line SHS Stadium</t>
-  </si>
-  <si>
     <t>10:59pm</t>
   </si>
   <si>
@@ -213,9 +153,6 @@
     <t>Time to next cut off</t>
   </si>
   <si>
-    <t>Min/Miles =</t>
-  </si>
-  <si>
     <t>Times adjusted by check ins</t>
   </si>
   <si>
@@ -261,14 +198,77 @@
     <t>Cut-off Time (must be in hr:min am/pm format, if you're getting #value left-click, -&gt; format cells -&gt; number -&gt; text)</t>
   </si>
   <si>
-    <t>Aid #7 Cheaha Lake</t>
+    <t>Min per Miles/Km =</t>
+  </si>
+  <si>
+    <t>Miles/ Km</t>
+  </si>
+  <si>
+    <t>Total Miles/ Km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START </t>
+  </si>
+  <si>
+    <t>Aid #1</t>
+  </si>
+  <si>
+    <t>Aid #2</t>
+  </si>
+  <si>
+    <t>Aid #3</t>
+  </si>
+  <si>
+    <t>Aid #4</t>
+  </si>
+  <si>
+    <t>Aid #5</t>
+  </si>
+  <si>
+    <t>Aid #6</t>
+  </si>
+  <si>
+    <t>Aid #7</t>
+  </si>
+  <si>
+    <t>Aid #8</t>
+  </si>
+  <si>
+    <t>Aid #9</t>
+  </si>
+  <si>
+    <t>Aid #10</t>
+  </si>
+  <si>
+    <t>Aid #11</t>
+  </si>
+  <si>
+    <t>Aid #12</t>
+  </si>
+  <si>
+    <t>Aid #13</t>
+  </si>
+  <si>
+    <t>Aid #14</t>
+  </si>
+  <si>
+    <t>Aid #15</t>
+  </si>
+  <si>
+    <t>Aid #16</t>
+  </si>
+  <si>
+    <t>Aid #17</t>
+  </si>
+  <si>
+    <t>Finish!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +303,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -766,7 +772,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C1" s="17">
         <v>22</v>
@@ -808,7 +814,7 @@
         <v>0.2131989533869561</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="26">
@@ -816,7 +822,7 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="20" t="str">
@@ -825,11 +831,11 @@
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="P1" s="25"/>
       <c r="Q1" s="3"/>
@@ -843,43 +849,43 @@
     <row r="2" spans="1:23" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="25" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="24" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="24" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="34"/>
@@ -887,7 +893,7 @@
     </row>
     <row r="3" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B3" s="33">
         <v>0</v>
@@ -906,13 +912,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J3" s="29">
         <v>7</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="1"/>
@@ -920,20 +926,20 @@
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="21" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
     </row>
     <row r="4" spans="1:23" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B4" s="33">
         <v>6.7</v>
@@ -992,21 +998,21 @@
         <v>1:9</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="R4" s="19">
         <f>IF(J4&gt;J3, B4/(J4-J3), B4/(J4-J3+24))</f>
         <v>4.6904545454545454</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B5" s="33">
         <v>6.57</v>
@@ -1065,21 +1071,21 @@
         <v>1:35</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" ref="R5:R21" si="8">IF(J5&gt;J4, B5/(J5-J4), B5/(J5-J4+24))</f>
         <v>4.6904545454545472</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B6" s="33">
         <v>5</v>
@@ -1138,21 +1144,21 @@
         <v>1:58</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545454</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B7" s="33">
         <v>4.4400000000000004</v>
@@ -1211,21 +1217,21 @@
         <v>2:24</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545437</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B8" s="33">
         <v>4.95</v>
@@ -1284,21 +1290,21 @@
         <v>3:7</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545463</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B9" s="33">
         <v>7.5</v>
@@ -1357,21 +1363,21 @@
         <v>4:0</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545481</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B10" s="33">
         <v>5.78</v>
@@ -1430,21 +1436,21 @@
         <v>3:55</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="R10" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545481</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B11" s="33">
         <v>4.3099999999999996</v>
@@ -1503,21 +1509,21 @@
         <v>4:30</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="R11" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545543</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B12" s="33">
         <v>6.82</v>
@@ -1576,21 +1582,21 @@
         <v>4:48</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="8"/>
         <v>4.690454545454541</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B13" s="33">
         <v>3.27</v>
@@ -1649,21 +1655,21 @@
         <v>5:13</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545481</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B14" s="33">
         <v>4.95</v>
@@ -1722,21 +1728,21 @@
         <v>5:39</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="R14" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545463</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B15" s="33">
         <v>5.15</v>
@@ -1795,21 +1801,21 @@
         <v>5:58</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545454</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B16" s="33">
         <v>3.34</v>
@@ -1868,21 +1874,21 @@
         <v>6:27</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="R16" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545499</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
     </row>
     <row r="17" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B17" s="33">
         <v>5.75</v>
@@ -1941,21 +1947,21 @@
         <v>6:53</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545428</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
     </row>
     <row r="18" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B18" s="33">
         <v>5</v>
@@ -2014,21 +2020,21 @@
         <v>7:25</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545534</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
     </row>
     <row r="19" spans="1:21" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B19" s="33">
         <v>6.1</v>
@@ -2087,21 +2093,21 @@
         <v>8:31</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545472</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
     </row>
     <row r="20" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B20" s="33">
         <v>10.1</v>
@@ -2160,21 +2166,21 @@
         <v>9:0</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="R20" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545454</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="T20" s="31"/>
       <c r="U20" s="31"/>
     </row>
     <row r="21" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B21" s="33">
         <v>7.46</v>
@@ -2233,14 +2239,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" si="8"/>
         <v>4.6904545454545463</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T21" s="34"/>
       <c r="U21" s="31"/>
@@ -2269,6 +2275,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="U1:U2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Birdoptera_pace_calculator.xlsx
+++ b/Birdoptera_pace_calculator.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwendolynbird/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55218E1-6A5E-B84F-82E0-A8F8380C265F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2583F6-BCA7-4E4D-87FD-F39CC343A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{13CF2108-B303-CF4F-8758-48F4D14F7459}"/>
   </bookViews>
@@ -349,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,24 +417,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -444,14 +433,26 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,13 +772,13 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="2" hidden="1" customWidth="1"/>
@@ -817,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="26">
+      <c r="G1" s="17">
         <v>103.19</v>
       </c>
       <c r="H1" s="3"/>
@@ -830,19 +831,19 @@
         <v>12:47</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
@@ -863,14 +864,14 @@
         <v>44</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="3"/>
@@ -878,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -888,14 +889,14 @@
         <v>37</v>
       </c>
       <c r="S2" s="3"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="35"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="29">
         <v>0</v>
       </c>
       <c r="C3" s="19">
@@ -911,21 +912,21 @@
       <c r="H3" s="19">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="25">
         <v>7</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="24" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="21" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="19" t="s">
@@ -934,17 +935,17 @@
       <c r="S3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
     </row>
     <row r="4" spans="1:23" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <v>6.7</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="23">
         <f>B4 + C3</f>
         <v>6.7</v>
       </c>
@@ -980,20 +981,20 @@
         <f>INT(J4)&amp;":"&amp;INT((J4-INT(J4))*60)</f>
         <v>8:25</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="16">
         <f t="shared" ref="M4:M21" si="1">IF(ABS(TIMEVALUE(Q5)*24-J4)&gt;12,TIMEVALUE(Q5)*24+24-J4,TIMEVALUE(Q5)*24-J4)</f>
         <v>2.5549003456407267</v>
       </c>
-      <c r="N4" s="22" t="str">
+      <c r="N4" s="18" t="str">
         <f t="shared" ref="N4:N10" si="2">INT(M4)&amp;":"&amp;INT((M4-INT(M4))*60)</f>
         <v>2:33</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="33">
         <f>M4-D5</f>
         <v>1.1541832218884249</v>
       </c>
-      <c r="P4" s="22" t="str">
+      <c r="P4" s="18" t="str">
         <f>INT(O4)&amp;":"&amp;INT((O4-INT(O4))*60)</f>
         <v>1:9</v>
       </c>
@@ -1007,17 +1008,17 @@
       <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="29">
         <v>6.57</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <f>B5 + C4</f>
         <v>13.27</v>
       </c>
@@ -1053,20 +1054,20 @@
         <f>INT(J5)&amp;":"&amp;INT((J5-INT(J5))*60)</f>
         <v>9:49</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>2.6541832218884238</v>
       </c>
-      <c r="N5" s="22" t="str">
+      <c r="N5" s="18" t="str">
         <f t="shared" si="2"/>
         <v>2:39</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="33">
         <f t="shared" ref="O5:O21" si="6">M5-D6</f>
         <v>1.5881884549536434</v>
       </c>
-      <c r="P5" s="22" t="str">
+      <c r="P5" s="18" t="str">
         <f t="shared" ref="P5:P20" si="7">INT(O5)&amp;":"&amp;INT((O5-INT(O5))*60)</f>
         <v>1:35</v>
       </c>
@@ -1080,17 +1081,17 @@
       <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <f>B6 + C5</f>
         <v>18.27</v>
       </c>
@@ -1126,20 +1127,20 @@
         <f t="shared" ref="K6:K21" si="11">INT(J6)&amp;":"&amp;INT((J6-INT(J6))*60)</f>
         <v>10:53</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="16">
         <f t="shared" si="1"/>
         <v>2.9215217882869791</v>
       </c>
-      <c r="N6" s="22" t="str">
+      <c r="N6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>2:55</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="33">
         <f t="shared" si="6"/>
         <v>1.974918435248894</v>
       </c>
-      <c r="P6" s="22" t="str">
+      <c r="P6" s="18" t="str">
         <f t="shared" si="7"/>
         <v>1:58</v>
       </c>
@@ -1153,17 +1154,17 @@
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="29">
         <v>4.4400000000000004</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <f>B7 + C6</f>
         <v>22.71</v>
       </c>
@@ -1199,20 +1200,20 @@
         <f t="shared" si="11"/>
         <v>11:50</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>3.4582517685822278</v>
       </c>
-      <c r="N7" s="22" t="str">
+      <c r="N7" s="18" t="str">
         <f t="shared" si="2"/>
         <v>3:27</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="33">
         <f t="shared" si="6"/>
         <v>2.4029169493167952</v>
       </c>
-      <c r="P7" s="22" t="str">
+      <c r="P7" s="18" t="str">
         <f t="shared" si="7"/>
         <v>2:24</v>
       </c>
@@ -1226,17 +1227,17 @@
       <c r="S7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="29">
         <v>4.95</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <f t="shared" ref="C8:C21" si="13">B8 + C7</f>
         <v>27.66</v>
       </c>
@@ -1272,20 +1273,20 @@
         <f t="shared" si="11"/>
         <v>12:53</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>4.7195836159834617</v>
       </c>
-      <c r="N8" s="22" t="str">
+      <c r="N8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>4:43</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="33">
         <f t="shared" si="6"/>
         <v>3.120591465581291</v>
       </c>
-      <c r="P8" s="22" t="str">
+      <c r="P8" s="18" t="str">
         <f t="shared" si="7"/>
         <v>3:7</v>
       </c>
@@ -1299,17 +1300,17 @@
       <c r="S8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>7.5</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <f t="shared" si="13"/>
         <v>35.159999999999997</v>
       </c>
@@ -1345,20 +1346,20 @@
         <f t="shared" si="11"/>
         <v>14:29</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="16">
         <f t="shared" si="1"/>
         <v>5.237258132247959</v>
       </c>
-      <c r="N9" s="22" t="str">
+      <c r="N9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>5:14</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="33">
         <f t="shared" si="6"/>
         <v>4.0049681816713525</v>
       </c>
-      <c r="P9" s="22" t="str">
+      <c r="P9" s="18" t="str">
         <f t="shared" si="7"/>
         <v>4:0</v>
       </c>
@@ -1372,17 +1373,17 @@
       <c r="S9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="29">
         <v>5.78</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <f t="shared" si="13"/>
         <v>40.94</v>
       </c>
@@ -1418,20 +1419,20 @@
         <f t="shared" si="11"/>
         <v>15:43</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="16">
         <f t="shared" si="1"/>
         <v>4.8383015150046855</v>
       </c>
-      <c r="N10" s="22" t="str">
+      <c r="N10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>4:50</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="33">
         <f t="shared" si="6"/>
         <v>3.9194140259069048</v>
       </c>
-      <c r="P10" s="22" t="str">
+      <c r="P10" s="18" t="str">
         <f t="shared" si="7"/>
         <v>3:55</v>
       </c>
@@ -1445,17 +1446,17 @@
       <c r="S10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="29">
         <v>4.3099999999999996</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <f t="shared" si="13"/>
         <v>45.25</v>
       </c>
@@ -1491,20 +1492,20 @@
         <f t="shared" si="11"/>
         <v>16:38</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>5.9694140259069073</v>
       </c>
-      <c r="N11" s="22" t="str">
+      <c r="N11" s="18" t="str">
         <f t="shared" ref="N11:N21" si="14">IF(M11&lt;0, "CUTOFF!", INT(M11)&amp;":"&amp;INT((M11-INT(M11))*60))</f>
         <v>5:58</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="33">
         <f t="shared" si="6"/>
         <v>4.5153971638078669</v>
       </c>
-      <c r="P11" s="22" t="str">
+      <c r="P11" s="18" t="str">
         <f t="shared" si="7"/>
         <v>4:30</v>
       </c>
@@ -1518,17 +1519,17 @@
       <c r="S11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="29">
         <v>6.82</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <f t="shared" si="13"/>
         <v>52.07</v>
       </c>
@@ -1564,20 +1565,20 @@
         <f t="shared" si="11"/>
         <v>18:6</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="16">
         <f t="shared" si="1"/>
         <v>5.4987304971411994</v>
       </c>
-      <c r="N12" s="22" t="str">
+      <c r="N12" s="18" t="str">
         <f t="shared" si="14"/>
         <v>5:29</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="33">
         <f t="shared" si="6"/>
         <v>4.8015699195658534</v>
       </c>
-      <c r="P12" s="22" t="str">
+      <c r="P12" s="18" t="str">
         <f t="shared" si="7"/>
         <v>4:48</v>
       </c>
@@ -1591,17 +1592,17 @@
       <c r="S12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="29">
         <v>3.27</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <f t="shared" si="13"/>
         <v>55.34</v>
       </c>
@@ -1637,20 +1638,20 @@
         <f t="shared" si="11"/>
         <v>18:47</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="16">
         <f t="shared" si="1"/>
         <v>6.2849032528991842</v>
       </c>
-      <c r="N13" s="22" t="str">
+      <c r="N13" s="18" t="str">
         <f t="shared" si="14"/>
         <v>6:17</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="33">
         <f t="shared" si="6"/>
         <v>5.2295684336337516</v>
       </c>
-      <c r="P13" s="22" t="str">
+      <c r="P13" s="18" t="str">
         <f t="shared" si="7"/>
         <v>5:13</v>
       </c>
@@ -1664,17 +1665,17 @@
       <c r="S13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="29">
         <v>4.95</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="23">
         <f t="shared" si="13"/>
         <v>60.290000000000006</v>
       </c>
@@ -1710,20 +1711,20 @@
         <f t="shared" si="11"/>
         <v>19:51</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="16">
         <f t="shared" si="1"/>
         <v>6.7629017669670866</v>
       </c>
-      <c r="N14" s="22" t="str">
+      <c r="N14" s="18" t="str">
         <f t="shared" si="14"/>
         <v>6:45</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="33">
         <f t="shared" si="6"/>
         <v>5.6649271570242625</v>
       </c>
-      <c r="P14" s="22" t="str">
+      <c r="P14" s="18" t="str">
         <f t="shared" si="7"/>
         <v>5:39</v>
       </c>
@@ -1737,17 +1738,17 @@
       <c r="S14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="29">
         <v>5.15</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <f t="shared" si="13"/>
         <v>65.440000000000012</v>
       </c>
@@ -1783,20 +1784,20 @@
         <f t="shared" si="11"/>
         <v>20:57</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="16">
         <f t="shared" si="1"/>
         <v>6.6815938236909282</v>
       </c>
-      <c r="N15" s="22" t="str">
+      <c r="N15" s="18" t="str">
         <f t="shared" si="14"/>
         <v>6:40</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="33">
         <f t="shared" si="6"/>
         <v>5.9695093193784947</v>
       </c>
-      <c r="P15" s="22" t="str">
+      <c r="P15" s="18" t="str">
         <f t="shared" si="7"/>
         <v>5:58</v>
       </c>
@@ -1810,17 +1811,17 @@
       <c r="S15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="29">
         <v>3.34</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <f t="shared" si="13"/>
         <v>68.780000000000015</v>
       </c>
@@ -1856,20 +1857,20 @@
         <f t="shared" si="11"/>
         <v>21:39</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="16">
         <f t="shared" si="1"/>
         <v>7.6861759860451642</v>
       </c>
-      <c r="N16" s="22" t="str">
+      <c r="N16" s="18" t="str">
         <f t="shared" si="14"/>
         <v>7:41</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="33">
         <f t="shared" si="6"/>
         <v>6.4602820040701667</v>
       </c>
-      <c r="P16" s="22" t="str">
+      <c r="P16" s="18" t="str">
         <f t="shared" si="7"/>
         <v>6:27</v>
       </c>
@@ -1883,17 +1884,17 @@
       <c r="S16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="29">
         <v>5.75</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <f t="shared" si="13"/>
         <v>74.530000000000015</v>
       </c>
@@ -1929,20 +1930,20 @@
         <f t="shared" si="11"/>
         <v>22:53</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="16">
         <f t="shared" si="1"/>
         <v>7.9602820040701658</v>
       </c>
-      <c r="N17" s="22" t="str">
+      <c r="N17" s="18" t="str">
         <f t="shared" si="14"/>
         <v>7:57</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="33">
         <f t="shared" si="6"/>
         <v>6.8942872371353854</v>
       </c>
-      <c r="P17" s="22" t="str">
+      <c r="P17" s="18" t="str">
         <f t="shared" si="7"/>
         <v>6:53</v>
       </c>
@@ -1956,17 +1957,17 @@
       <c r="S17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="29">
         <v>5</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="23">
         <f t="shared" si="13"/>
         <v>79.530000000000015</v>
       </c>
@@ -2002,20 +2003,20 @@
         <f t="shared" si="11"/>
         <v>23:57</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="16">
         <f t="shared" si="1"/>
         <v>8.7276205704687229</v>
       </c>
-      <c r="N18" s="22" t="str">
+      <c r="N18" s="18" t="str">
         <f t="shared" si="14"/>
         <v>8:43</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="33">
         <f t="shared" si="6"/>
         <v>7.4271069548082904</v>
       </c>
-      <c r="P18" s="22" t="str">
+      <c r="P18" s="18" t="str">
         <f t="shared" si="7"/>
         <v>7:25</v>
       </c>
@@ -2029,17 +2030,17 @@
       <c r="S18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="1:21" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="29">
         <v>6.1</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <f t="shared" si="13"/>
         <v>85.63000000000001</v>
       </c>
@@ -2075,20 +2076,20 @@
         <f t="shared" si="11"/>
         <v>1:15</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="16">
         <f t="shared" si="1"/>
         <v>10.677106954808288</v>
       </c>
-      <c r="N19" s="22" t="str">
+      <c r="N19" s="18" t="str">
         <f t="shared" si="14"/>
         <v>10:40</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="33">
         <f t="shared" si="6"/>
         <v>8.5237975256000311</v>
       </c>
-      <c r="P19" s="22" t="str">
+      <c r="P19" s="18" t="str">
         <f t="shared" si="7"/>
         <v>8:31</v>
       </c>
@@ -2102,17 +2103,17 @@
       <c r="S19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="29">
         <v>10.1</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <f t="shared" si="13"/>
         <v>95.73</v>
       </c>
@@ -2148,20 +2149,20 @@
         <f t="shared" si="11"/>
         <v>3:24</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="16">
         <f t="shared" si="1"/>
         <v>10.590464192266698</v>
       </c>
-      <c r="N20" s="22" t="str">
+      <c r="N20" s="18" t="str">
         <f t="shared" si="14"/>
         <v>10:35</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="33">
         <f t="shared" si="6"/>
         <v>9.0000000000000053</v>
       </c>
-      <c r="P20" s="22" t="str">
+      <c r="P20" s="18" t="str">
         <f t="shared" si="7"/>
         <v>9:0</v>
       </c>
@@ -2175,17 +2176,17 @@
       <c r="S20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="1:21" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="29">
         <v>7.46</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="23">
         <f t="shared" si="13"/>
         <v>103.19</v>
       </c>
@@ -2221,20 +2222,20 @@
         <f t="shared" si="11"/>
         <v>4:59</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N21" s="22" t="e">
+      <c r="N21" s="18" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O21" s="23" t="e">
+      <c r="O21" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P21" s="22" t="e">
+      <c r="P21" s="18" t="e">
         <f>INT(O21)&amp;":"&amp;INT((O21-INT(O21))*60)</f>
         <v>#VALUE!</v>
       </c>
@@ -2248,8 +2249,8 @@
       <c r="S21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="31"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
@@ -2271,6 +2272,7 @@
       <c r="A29" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="U1:U2"/>
